--- a/results/results-preprint.xlsx
+++ b/results/results-preprint.xlsx
@@ -570,7 +570,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>evaluate one model</t>
+          <t>compare internally</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -583,7 +583,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>compare internally</t>
+          <t>evaluate one model</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -658,7 +658,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>evaluate one model</t>
+          <t>compare internally</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -671,7 +671,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>compare internally</t>
+          <t>evaluate one model</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -873,7 +873,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MSE</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -886,7 +886,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>probabilistic interval performance metric used in the COVID-19 Forecast Hub</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -899,7 +899,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -925,7 +925,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MedAE</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -938,7 +938,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -951,7 +951,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>MAPE</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -964,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>MedAE</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -977,7 +977,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>probabilistic interval performance metric used in the COVID-19 Forecast Hub</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1192,7 +1192,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>95% CIs</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1205,7 +1205,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>95% CIs</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1218,7 +1218,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>multiple CIs</t>
+          <t>sensitivity analysis</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1231,7 +1231,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>80% CIs</t>
+          <t>multiple CIs</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1244,7 +1244,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sensitivity analysis</t>
+          <t>80% CIs</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1623,7 +1623,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>health risk factors</t>
+          <t>hospital resources</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1649,7 +1649,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hospital resources</t>
+          <t>health risk factors</t>
         </is>
       </c>
       <c r="B11" t="n">

--- a/results/results-preprint.xlsx
+++ b/results/results-preprint.xlsx
@@ -11,22 +11,23 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_cats" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_cat_counts" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="method_cats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="goal_cats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level_full" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="target_cats" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluable" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluated" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_subcats" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metrics" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metric_counts" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_cats" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_subcats" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cats" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cat_counts" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journal_subjects" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="forecasting_window" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scenarios-interventions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level_full" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="target_cats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluable" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluated" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_subcats" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metrics" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metric_counts" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_cats" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_subcats" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cats" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cat_counts" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journals" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journal_subjects" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,6 +530,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>metric-based</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.631578947368421</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>not evaluable</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,7 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -686,7 +762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -746,7 +822,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>compare internally</t>
+          <t>evaluate one model</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -759,7 +835,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>evaluate one model</t>
+          <t>compare internally</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -787,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -873,7 +949,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -886,7 +962,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>probabilistic interval performance metric used in the COVID-19 Forecast Hub</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -899,7 +975,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>MedAE</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -925,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MSE</t>
+          <t>probabilistic interval performance metric used in the COVID-19 Forecast Hub</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -938,7 +1014,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -964,7 +1040,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MedAE</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -977,7 +1053,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -992,7 +1068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1083,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1150,107 +1226,6 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>occurances</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>95% CIs</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4210526315789473</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4210526315789473</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sensitivity analysis</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>multiple CIs</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>80% CIs</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
         <v>0.05263157894736842</v>
       </c>
     </row>
@@ -1293,20 +1268,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>95% CIs</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>note factors that were not accounted for in their model</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1319,40 +1294,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>80% CIs</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>limitations specific to the methods used</t>
+          <t>multiple CIs</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>unknown factors that affect covid outcomes</t>
+          <t>sensitivity analysis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
   </sheetData>
@@ -1361,6 +1336,107 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>note factors that were not accounted for in their model</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>limitations specific to the methods used</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>unknown factors that affect covid outcomes</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,64 +1509,6 @@
       </c>
       <c r="C5" t="n">
         <v>0.05263157894736842</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>occurances</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.631578947368421</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>arXiv</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3684210526315789</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1615,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>hospitalizations</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1610,7 +1628,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hospitalizations</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1623,7 +1641,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hospital resources</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1675,7 +1693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>hospital resources</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1691,6 +1709,64 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.631578947368421</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1944,7 +2020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,32 +2069,6 @@
       </c>
       <c r="C3" t="n">
         <v>0.3684210526315789</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Interventions</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2105263157894737</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Scenarios</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2105263157894737</v>
       </c>
     </row>
   </sheetData>
@@ -2058,42 +2108,38 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>county or smaller</t>
+          <t>Interventions</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>Scenarios</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
   </sheetData>
@@ -2148,7 +2194,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>county</t>
+          <t>county or smaller</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2177,6 +2223,81 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.631578947368421</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2262,79 +2383,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>occurances</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>metric-based</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.631578947368421</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>not evaluable</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3157894736842105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>